--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Alcam</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Alcam</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H2">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I2">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J2">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>6388.307807496045</v>
+        <v>62.88503704249067</v>
       </c>
       <c r="R2">
-        <v>57494.77026746441</v>
+        <v>565.9653333824159</v>
       </c>
       <c r="S2">
-        <v>0.541286562431993</v>
+        <v>0.2388281176732297</v>
       </c>
       <c r="T2">
-        <v>0.541286562431993</v>
+        <v>0.2388281176732297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H3">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I3">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J3">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>3955.077709532766</v>
+        <v>36.18337632303778</v>
       </c>
       <c r="R3">
-        <v>35595.6993857949</v>
+        <v>325.65038690734</v>
       </c>
       <c r="S3">
-        <v>0.335116979653413</v>
+        <v>0.1374191391897279</v>
       </c>
       <c r="T3">
-        <v>0.335116979653413</v>
+        <v>0.1374191391897279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H4">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I4">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J4">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>1148.1947188393</v>
+        <v>15.76034224880178</v>
       </c>
       <c r="R4">
-        <v>10333.7524695537</v>
+        <v>141.843080239216</v>
       </c>
       <c r="S4">
-        <v>0.0972874806742753</v>
+        <v>0.05985546085667257</v>
       </c>
       <c r="T4">
-        <v>0.09728748067427528</v>
+        <v>0.05985546085667257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H5">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I5">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J5">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>58.44399590655244</v>
+        <v>81.31272758350133</v>
       </c>
       <c r="R5">
-        <v>525.995963158972</v>
+        <v>731.8145482515118</v>
       </c>
       <c r="S5">
-        <v>0.00495200772917153</v>
+        <v>0.3088137748654266</v>
       </c>
       <c r="T5">
-        <v>0.00495200772917153</v>
+        <v>0.3088137748654266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H6">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I6">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J6">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>36.18337632303778</v>
+        <v>46.78647195545889</v>
       </c>
       <c r="R6">
-        <v>325.65038690734</v>
+        <v>421.07824759913</v>
       </c>
       <c r="S6">
-        <v>0.003065847165989491</v>
+        <v>0.1776881362436586</v>
       </c>
       <c r="T6">
-        <v>0.003065847165989491</v>
+        <v>0.1776881362436586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H7">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I7">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J7">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>10.50436038304667</v>
+        <v>20.37871767545689</v>
       </c>
       <c r="R7">
-        <v>94.53924344741999</v>
+        <v>183.408459079112</v>
       </c>
       <c r="S7">
-        <v>0.0008900430745704429</v>
+        <v>0.07739537117128455</v>
       </c>
       <c r="T7">
-        <v>0.0008900430745704428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.110262</v>
-      </c>
-      <c r="H8">
-        <v>3.330786</v>
-      </c>
-      <c r="I8">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J8">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>102.8289443333333</v>
-      </c>
-      <c r="N8">
-        <v>308.486833</v>
-      </c>
-      <c r="O8">
-        <v>0.5559120396302443</v>
-      </c>
-      <c r="P8">
-        <v>0.5559120396302443</v>
-      </c>
-      <c r="Q8">
-        <v>114.1670693934153</v>
-      </c>
-      <c r="R8">
-        <v>1027.503624540738</v>
-      </c>
-      <c r="S8">
-        <v>0.009673469469079718</v>
-      </c>
-      <c r="T8">
-        <v>0.009673469469079718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.110262</v>
-      </c>
-      <c r="H9">
-        <v>3.330786</v>
-      </c>
-      <c r="I9">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J9">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>63.66262833333334</v>
-      </c>
-      <c r="N9">
-        <v>190.987885</v>
-      </c>
-      <c r="O9">
-        <v>0.3441717873742007</v>
-      </c>
-      <c r="P9">
-        <v>0.3441717873742007</v>
-      </c>
-      <c r="Q9">
-        <v>70.68219705862334</v>
-      </c>
-      <c r="R9">
-        <v>636.13977352761</v>
-      </c>
-      <c r="S9">
-        <v>0.005988960554798164</v>
-      </c>
-      <c r="T9">
-        <v>0.005988960554798164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.110262</v>
-      </c>
-      <c r="H10">
-        <v>3.330786</v>
-      </c>
-      <c r="I10">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J10">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.481835</v>
-      </c>
-      <c r="N10">
-        <v>55.445505</v>
-      </c>
-      <c r="O10">
-        <v>0.09991617299555509</v>
-      </c>
-      <c r="P10">
-        <v>0.09991617299555508</v>
-      </c>
-      <c r="Q10">
-        <v>20.51967909077</v>
-      </c>
-      <c r="R10">
-        <v>184.67711181693</v>
-      </c>
-      <c r="S10">
-        <v>0.001738649246709363</v>
-      </c>
-      <c r="T10">
-        <v>0.001738649246709362</v>
+        <v>0.07739537117128455</v>
       </c>
     </row>
   </sheetData>
